--- a/artfynd/A 59875-2025 artfynd.xlsx
+++ b/artfynd/A 59875-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130792821</v>
       </c>
       <c r="B2" t="n">
-        <v>58560</v>
+        <v>58564</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         <v>130792813</v>
       </c>
       <c r="B3" t="n">
-        <v>57801</v>
+        <v>57805</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         <v>130792816</v>
       </c>
       <c r="B4" t="n">
-        <v>58037</v>
+        <v>58041</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         <v>130792800</v>
       </c>
       <c r="B5" t="n">
-        <v>58317</v>
+        <v>58321</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         <v>130792828</v>
       </c>
       <c r="B6" t="n">
-        <v>58252</v>
+        <v>58256</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>130792839</v>
       </c>
       <c r="B7" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
